--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C079C24F-9E86-4270-84F2-465DA426107E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEE2156-C04C-4E83-8B38-30AAC96FED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B90AAAD5-0E12-411F-8D8B-3610B23F5147}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E4BEDC-60AC-4B2A-90EC-99001878FB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,21 +36,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Student ID</t>
+    <t>ID NUMBER</t>
   </si>
   <si>
-    <t>Full name</t>
+    <t>LAST NAME</t>
   </si>
   <si>
-    <t>Year Level</t>
+    <t>FIRST NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,38 +402,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969DE07A-5A4C-4284-918E-48ADAF872CB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF212854-3881-441E-92BC-8BA4B30D7E87}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Year Level" prompt="Select year level of Student" sqref="C2:C606" xr:uid="{1B42F005-40A1-4498-983F-155311854502}">
-      <formula1>"1st year, 2nd year, 3rd year, 4th year, 5th year, 6th year"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queen\Documents\Capstone\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEE2156-C04C-4E83-8B38-30AAC96FED1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30301B74-862C-4265-9DA9-A3E28BE333AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{87E4BEDC-60AC-4B2A-90EC-99001878FB6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,31 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>ID NUMBER</t>
-  </si>
-  <si>
-    <t>LAST NAME</t>
-  </si>
-  <si>
-    <t>FIRST NAME</t>
+    <t>Student ID Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,28 +389,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF212854-3881-441E-92BC-8BA4B30D7E87}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queen\Documents\Capstone\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30301B74-862C-4265-9DA9-A3E28BE333AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970AF7F7-5908-40B9-BCB9-5D4F6C074965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -36,9 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Student ID Number</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Year-Level</t>
+  </si>
+  <si>
+    <t>College</t>
   </si>
 </sst>
 </file>
@@ -94,9 +103,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -240,7 +249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,9 +410,18 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Queen\Documents\Capstone\cmu-store-deploy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970AF7F7-5908-40B9-BCB9-5D4F6C074965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC10250-54E5-49C3-90A4-98927F779609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,28 +34,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Student ID Number</t>
   </si>
   <si>
-    <t>Full name</t>
-  </si>
-  <si>
-    <t>Year-Level</t>
-  </si>
-  <si>
-    <t>College</t>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerricho </t>
+  </si>
+  <si>
+    <t>Borja</t>
+  </si>
+  <si>
+    <t>Pamisa</t>
+  </si>
+  <si>
+    <t>s.pamisa.jerricho@cmu.edu.ph</t>
+  </si>
+  <si>
+    <t>Year Level (or classification)</t>
+  </si>
+  <si>
+    <t>4th Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +107,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -103,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +173,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -249,7 +279,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,18 +429,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +458,37 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2020301072</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{4AFDAEB1-6345-495A-B284-53848B0C6740}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC10250-54E5-49C3-90A4-98927F779609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5203888-AC3E-4C38-882F-850907DDC64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Student ID Number</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>4th Year</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Alphalyn</t>
+  </si>
+  <si>
+    <t>Payo</t>
+  </si>
+  <si>
+    <t>Quintero</t>
+  </si>
+  <si>
+    <t>s.quintero.alphalyn@cmu.edu.ph</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +503,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{4AFDAEB1-6345-495A-B284-53848B0C6740}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B2F41016-0605-4362-BD7C-E189CB631C27}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{CD1F3F22-CCC0-461D-882B-F6C56C1C3A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5203888-AC3E-4C38-882F-850907DDC64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32198D7-2F30-4FDD-B41A-3903424A3D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Student ID Number</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jerricho </t>
-  </si>
-  <si>
-    <t>Borja</t>
   </si>
   <si>
     <t>Pamisa</t>
@@ -450,7 +447,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,17 +487,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,36 +502,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>2020300620</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32198D7-2F30-4FDD-B41A-3903424A3D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D07E9-07C8-4BBA-9C85-4FC4CFE83BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Student ID Number</t>
   </si>
@@ -66,12 +66,6 @@
     <t>4th Year</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
     <t>Alphalyn</t>
   </si>
   <si>
@@ -82,13 +76,133 @@
   </si>
   <si>
     <t>s.quintero.alphalyn@cmu.edu.ph</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Wright</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Hill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +214,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -499,46 +619,269 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2020300620</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2020300620</v>
+        <v>2017000001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017000003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017000004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017000005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017000006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2017000007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017000008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017000009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017000010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017000011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017000012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017000013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017000014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017000015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{4AFDAEB1-6345-495A-B284-53848B0C6740}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B2F41016-0605-4362-BD7C-E189CB631C27}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{CD1F3F22-CCC0-461D-882B-F6C56C1C3A68}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{CD1F3F22-CCC0-461D-882B-F6C56C1C3A68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D07E9-07C8-4BBA-9C85-4FC4CFE83BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ADD051-4C8F-4E4A-B059-1BDCFBD146B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Student ID Number</t>
   </si>
@@ -51,151 +51,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Jerricho </t>
-  </si>
-  <si>
-    <t>Pamisa</t>
-  </si>
-  <si>
-    <t>s.pamisa.jerricho@cmu.edu.ph</t>
-  </si>
-  <si>
     <t>Year Level (or classification)</t>
-  </si>
-  <si>
-    <t>4th Year</t>
-  </si>
-  <si>
-    <t>Alphalyn</t>
-  </si>
-  <si>
-    <t>Payo</t>
-  </si>
-  <si>
-    <t>Quintero</t>
-  </si>
-  <si>
-    <t>s.quintero.alphalyn@cmu.edu.ph</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Emily</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Hill</t>
   </si>
 </sst>
 </file>
@@ -564,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAC9E85-C227-492E-A7A1-7657687B85F9}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,292 +453,17 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2020301072</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2020300620</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017000001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2017000002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2017000003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2017000004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2017000005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017000006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2017000007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2017000008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2017000009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2017000010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2017000011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2017000012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017000013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2017000014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2017000015</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{4AFDAEB1-6345-495A-B284-53848B0C6740}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{CD1F3F22-CCC0-461D-882B-F6C56C1C3A68}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkWolf\Documents\CMU FIles\capstone project\cmu-store-deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ADD051-4C8F-4E4A-B059-1BDCFBD146B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D6917C-8C47-4DC1-AA0A-78B02581E8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45A69A67-D5DF-4AE6-91C3-A91C978DF2EB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Student ID Number</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>Year Level (or classification)</t>
+  </si>
+  <si>
+    <t>Jerricho</t>
+  </si>
+  <si>
+    <t>Pamisa</t>
+  </si>
+  <si>
+    <t>s.pamisa.jerricho@cmu.edu.ph</t>
+  </si>
+  <si>
+    <t>Alphalyn</t>
+  </si>
+  <si>
+    <t>Quintero</t>
+  </si>
+  <si>
+    <t>Payo</t>
+  </si>
+  <si>
+    <t>s.quintero.alphalyn@cmu.edu.ph</t>
+  </si>
+  <si>
+    <t>4th Year</t>
+  </si>
+  <si>
+    <t>Borja</t>
   </si>
 </sst>
 </file>
@@ -423,7 +450,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +484,48 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="1"/>
+      <c r="A2">
+        <v>2020301072</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
+      <c r="A3">
+        <v>2020300620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{97184BB4-AC65-472A-84A5-9DECC9DF71D1}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{64B29F4F-38CD-4EB9-827E-1D5DD11FF5D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>